--- a/src/data/main.xlsx
+++ b/src/data/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/d_toyo/toyo_iiif/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C963CD68-D3C0-2F4E-B45C-FAF9E3CEAEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A44D87-05F1-4F45-8806-9423EC6C1A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="3886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3936" uniqueCount="3888">
   <si>
     <t>id</t>
   </si>
@@ -151,7 +151,7 @@
   </si>
   <si>
     <t>亜東印画輯</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>亜東印画輯 第2冊</t>
@@ -11690,13 +11690,24 @@
   </si>
   <si>
     <t>初冬　（海城）　[第209回]</t>
+  </si>
+  <si>
+    <t>attribution</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>東洋文庫</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">トウヨウブンコ </t>
+    </rPh>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -11767,6 +11778,12 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -11843,7 +11860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -11875,6 +11892,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -12093,15 +12112,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -12135,8 +12154,11 @@
       <c r="K1" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L1" s="26" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
@@ -12171,7 +12193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -12200,7 +12222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -12215,7 +12237,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="str">
         <f>"001"</f>
         <v>001</v>
@@ -12252,8 +12274,11 @@
         <f>"http://iiif.io/api/presentation/2#pagedHint"</f>
         <v>http://iiif.io/api/presentation/2#pagedHint</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L5" s="25" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="str">
         <f>"002"</f>
         <v>002</v>
@@ -12286,8 +12311,11 @@
         <f t="shared" ref="K6:K16" si="3">"http://iiif.io/api/presentation/2#pagedHint"</f>
         <v>http://iiif.io/api/presentation/2#pagedHint</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L6" s="25" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="str">
         <f>"003"</f>
         <v>003</v>
@@ -12320,8 +12348,11 @@
         <f t="shared" si="3"/>
         <v>http://iiif.io/api/presentation/2#pagedHint</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L7" s="25" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="str">
         <f>"004"</f>
         <v>004</v>
@@ -12354,8 +12385,11 @@
         <f t="shared" si="3"/>
         <v>http://iiif.io/api/presentation/2#pagedHint</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L8" s="25" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="str">
         <f>"005"</f>
         <v>005</v>
@@ -12388,8 +12422,11 @@
         <f t="shared" si="3"/>
         <v>http://iiif.io/api/presentation/2#pagedHint</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L9" s="25" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="str">
         <f>"006"</f>
         <v>006</v>
@@ -12419,8 +12456,11 @@
         <f t="shared" si="3"/>
         <v>http://iiif.io/api/presentation/2#pagedHint</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="25" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="str">
         <f>"007"</f>
         <v>007</v>
@@ -12450,8 +12490,11 @@
         <f t="shared" si="3"/>
         <v>http://iiif.io/api/presentation/2#pagedHint</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L11" s="25" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="str">
         <f>"008"</f>
         <v>008</v>
@@ -12481,8 +12524,11 @@
         <f t="shared" si="3"/>
         <v>http://iiif.io/api/presentation/2#pagedHint</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L12" s="25" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="str">
         <f>"009"</f>
         <v>009</v>
@@ -12512,8 +12558,11 @@
         <f t="shared" si="3"/>
         <v>http://iiif.io/api/presentation/2#pagedHint</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L13" s="25" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="str">
         <f>"010"</f>
         <v>010</v>
@@ -12543,8 +12592,11 @@
         <f t="shared" si="3"/>
         <v>http://iiif.io/api/presentation/2#pagedHint</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L14" s="25" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="str">
         <f>"011"</f>
         <v>011</v>
@@ -12574,8 +12626,11 @@
         <f t="shared" si="3"/>
         <v>http://iiif.io/api/presentation/2#pagedHint</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L15" s="25" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="str">
         <f>"012"</f>
         <v>012</v>
@@ -12605,9 +12660,12 @@
         <f t="shared" si="3"/>
         <v>http://iiif.io/api/presentation/2#pagedHint</v>
       </c>
+      <c r="L16" s="25" t="s">
+        <v>3887</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -31205,7 +31263,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -62318,7 +62376,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -62350,7 +62408,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>